--- a/Jogos_do_Dia/2023-10-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ22"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,10 +691,10 @@
         <v>1.82</v>
       </c>
       <c r="J2" t="n">
-        <v>7.67</v>
+        <v>5.61</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4.46</v>
       </c>
       <c r="L2" t="n">
         <v>1.32</v>
@@ -718,10 +718,10 @@
         <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
         <v>1.91</v>
@@ -830,13 +830,13 @@
         <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="M3" t="n">
         <v>1.44</v>
@@ -857,10 +857,10 @@
         <v>2.95</v>
       </c>
       <c r="S3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
         <v>1.83</v>
@@ -969,13 +969,13 @@
         <v>4.34</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="n">
         <v>1.44</v>
@@ -996,7 +996,7 @@
         <v>3.36</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T4" t="n">
         <v>1.85</v>
@@ -1108,13 +1108,13 @@
         <v>4.93</v>
       </c>
       <c r="J5" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.38</v>
@@ -1135,10 +1135,10 @@
         <v>3.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>1.78</v>
@@ -1247,13 +1247,13 @@
         <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.53</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="M6" t="n">
         <v>1.36</v>
@@ -1274,10 +1274,10 @@
         <v>3.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.73</v>
+        <v>2.03</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
         <v>1.73</v>
@@ -1386,13 +1386,13 @@
         <v>2.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.06</v>
+        <v>2.78</v>
       </c>
       <c r="K7" t="n">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
       <c r="M7" t="n">
         <v>1.33</v>
@@ -1413,10 +1413,10 @@
         <v>3.9</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="T7" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1525,13 +1525,13 @@
         <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.22</v>
+        <v>3.06</v>
       </c>
       <c r="L8" t="n">
-        <v>2.73</v>
+        <v>2.87</v>
       </c>
       <c r="M8" t="n">
         <v>1.4</v>
@@ -1552,10 +1552,10 @@
         <v>3.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1664,13 +1664,13 @@
         <v>2.63</v>
       </c>
       <c r="J9" t="n">
-        <v>2.73</v>
+        <v>2.67</v>
       </c>
       <c r="K9" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.33</v>
@@ -1691,10 +1691,10 @@
         <v>4.33</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="U9" t="n">
         <v>1.57</v>
@@ -1803,13 +1803,13 @@
         <v>3.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="K10" t="n">
         <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>2.74</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
@@ -1830,10 +1830,10 @@
         <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="T10" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
         <v>1.62</v>
@@ -2081,13 +2081,13 @@
         <v>2.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="M12" t="n">
         <v>1.33</v>
@@ -2108,10 +2108,10 @@
         <v>4.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
         <v>1.62</v>
@@ -2202,37 +2202,37 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atlético Tucumán</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talleres Córdoba</t>
+          <t>Central Córdoba SdE</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="H13" t="n">
         <v>1.95</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.7</v>
+        <v>2.01</v>
       </c>
       <c r="K13" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="L13" t="n">
-        <v>2.73</v>
+        <v>4.12</v>
       </c>
       <c r="M13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="N13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="O13" t="n">
         <v>1.09</v>
@@ -2241,85 +2241,85 @@
         <v>6.83</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO13" t="n">
         <v>1.5</v>
       </c>
-      <c r="R13" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="AP13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>1.3</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2341,37 +2341,37 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Atlético Tucumán</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Central Córdoba SdE</t>
+          <t>Talleres Córdoba</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
         <v>1.95</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.01</v>
+        <v>2.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="L14" t="n">
-        <v>4.12</v>
+        <v>2.73</v>
       </c>
       <c r="M14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="N14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="O14" t="n">
         <v>1.09</v>
@@ -2380,85 +2380,85 @@
         <v>6.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.47</v>
+        <v>2.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="X14" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Y14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM14" t="n">
         <v>1.83</v>
       </c>
-      <c r="Z14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="15">
@@ -2480,124 +2480,124 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Atlético PR</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>América Mineiro</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>2.2</v>
       </c>
       <c r="H15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM15" t="n">
         <v>2.25</v>
       </c>
-      <c r="I15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="AN15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>1.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>1.46</v>
       </c>
     </row>
     <row r="16">
@@ -2619,55 +2619,55 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N16" t="n">
         <v>2.75</v>
       </c>
-      <c r="H16" t="n">
+      <c r="O16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S16" t="n">
         <v>2.05</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.12</v>
-      </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
         <v>1.95</v>
@@ -2676,67 +2676,67 @@
         <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="X16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE16" t="n">
         <v>1.3</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AF16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL16" t="n">
         <v>1.57</v>
       </c>
-      <c r="Z16" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1.58</v>
-      </c>
       <c r="AM16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="17">
@@ -2758,124 +2758,124 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Atlético PR</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>América Mineiro</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="H17" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M17" t="n">
         <v>1.45</v>
       </c>
-      <c r="K17" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AH17" t="n">
         <v>1.18</v>
       </c>
-      <c r="Y17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AI17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>1.45</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="18">
@@ -2915,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2942,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -3036,55 +3036,55 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J19" t="n">
-        <v>1.72</v>
+        <v>2.09</v>
       </c>
       <c r="K19" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>4.64</v>
+        <v>3.25</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="U19" t="n">
         <v>1.91</v>
@@ -3093,28 +3093,28 @@
         <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="X19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="Z19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.46</v>
+        <v>0.86</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AD19" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="AE19" t="n">
         <v>1.58</v>
@@ -3123,37 +3123,37 @@
         <v>8.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AI19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="20">
@@ -3175,55 +3175,55 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H20" t="n">
         <v>2.05</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="K20" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
-        <v>3.87</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S20" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
         <v>1.95</v>
@@ -3232,67 +3232,67 @@
         <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="X20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.86</v>
+        <v>0.46</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AD20" t="n">
-        <v>3.12</v>
+        <v>3.34</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AI20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="21">
@@ -3332,13 +3332,13 @@
         <v>5.24</v>
       </c>
       <c r="J21" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>1.3</v>
@@ -3359,10 +3359,10 @@
         <v>4.2</v>
       </c>
       <c r="S21" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.78</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.13</v>
       </c>
       <c r="U21" t="n">
         <v>1.76</v>
@@ -3395,25 +3395,25 @@
         <v>2.64</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AL21" t="n">
         <v>1.91</v>
@@ -3422,16 +3422,16 @@
         <v>1.78</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="22">
@@ -3534,13 +3534,13 @@
         <v>3.05</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH22" t="n">
         <v>1.26</v>
@@ -3571,6 +3571,423 @@
       </c>
       <c r="AQ22" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>29</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>29</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
